--- a/晋江大数据数据分析平台（rocket）/03设计/05配置状态报告/配置状态报告.xlsx
+++ b/晋江大数据数据分析平台（rocket）/03设计/05配置状态报告/配置状态报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9675"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>前端框架搭建</t>
   </si>
   <si>
-    <t>朱永曦</t>
+    <t>李盼盼</t>
   </si>
   <si>
     <t>后端框架搭建</t>
@@ -62,12 +62,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,25 +76,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,69 +132,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,45 +205,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,37 +229,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,145 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +554,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +597,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -629,190 +655,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,6 +849,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1209,13 +1205,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1256,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8">
-        <v>3.2</v>
+        <v>6.25</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -1272,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8">
-        <v>3.2</v>
+        <v>6.26</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -1288,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8">
-        <v>3.3</v>
+        <v>6.28</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1304,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8">
-        <v>3.11</v>
+        <v>7.1</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -1320,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8">
-        <v>3.12</v>
+        <v>7.2</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -1336,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8">
-        <v>3.13</v>
+        <v>7.3</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -1347,12 +1343,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:6">
+    <row r="10" ht="14.75" spans="1:6">
       <c r="A10" s="11">
         <v>7</v>
       </c>
       <c r="B10" s="12">
-        <v>3.14</v>
+        <v>7.6</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>12</v>
@@ -1368,15 +1364,15 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+    <row r="14" spans="3:5">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+    <row r="15" spans="3:5">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1405,7 +1401,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1422,7 +1418,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
